--- a/_files/requirements/master_data/master-reg_center_device.xlsx
+++ b/_files/requirements/master_data/master-reg_center_device.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B9F5A72E-7641-469D-AD5A-628BCC29603A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{713E8C73-51AB-438D-84BD-070C01C9411E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +369,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -530,9 +536,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -890,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="B417" sqref="B417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8017,10 +8026,10 @@
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A357">
-        <v>10008</v>
-      </c>
-      <c r="B357" s="1">
+      <c r="A357" s="3">
+        <v>33333</v>
+      </c>
+      <c r="B357" s="4">
         <v>3000376</v>
       </c>
       <c r="C357" t="s">
@@ -8037,10 +8046,10 @@
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A358">
-        <v>10008</v>
-      </c>
-      <c r="B358" s="1">
+      <c r="A358" s="3">
+        <v>33333</v>
+      </c>
+      <c r="B358" s="4">
         <v>3000377</v>
       </c>
       <c r="C358" t="s">
@@ -8057,10 +8066,10 @@
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A359">
-        <v>10008</v>
-      </c>
-      <c r="B359" s="1">
+      <c r="A359" s="3">
+        <v>33333</v>
+      </c>
+      <c r="B359" s="4">
         <v>3000378</v>
       </c>
       <c r="C359" t="s">
@@ -8077,10 +8086,10 @@
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A360">
-        <v>10008</v>
-      </c>
-      <c r="B360" s="1">
+      <c r="A360" s="3">
+        <v>33333</v>
+      </c>
+      <c r="B360" s="4">
         <v>3000379</v>
       </c>
       <c r="C360" t="s">
@@ -8097,10 +8106,10 @@
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A361">
-        <v>10008</v>
-      </c>
-      <c r="B361" s="1">
+      <c r="A361" s="3">
+        <v>33333</v>
+      </c>
+      <c r="B361" s="4">
         <v>3000380</v>
       </c>
       <c r="C361" t="s">
@@ -8118,7 +8127,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B362" s="1">
         <v>3000381</v>
@@ -8138,7 +8147,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B363" s="1">
         <v>3000382</v>
@@ -8158,7 +8167,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B364" s="1">
         <v>3000383</v>
@@ -8178,7 +8187,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B365" s="1">
         <v>3000384</v>
@@ -8198,7 +8207,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B366" s="1">
         <v>3000385</v>
@@ -8218,7 +8227,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B367" s="1">
         <v>3000386</v>
@@ -8238,7 +8247,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B368" s="1">
         <v>3000387</v>
@@ -8258,7 +8267,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B369" s="1">
         <v>3000388</v>
@@ -8278,7 +8287,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B370" s="1">
         <v>3000389</v>
@@ -8298,7 +8307,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B371" s="1">
         <v>3000390</v>
@@ -8318,7 +8327,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B372" s="1">
         <v>3000391</v>
@@ -8338,7 +8347,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B373" s="1">
         <v>3000392</v>
@@ -8358,7 +8367,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B374" s="1">
         <v>3000393</v>
@@ -8378,7 +8387,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B375" s="1">
         <v>3000394</v>
@@ -8398,7 +8407,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B376" s="1">
         <v>3000395</v>
@@ -8418,7 +8427,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B377" s="1">
         <v>3000396</v>
@@ -8438,7 +8447,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B378" s="1">
         <v>3000397</v>
@@ -8458,7 +8467,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B379" s="1">
         <v>3000398</v>
@@ -8478,7 +8487,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B380" s="1">
         <v>3000399</v>
@@ -8498,7 +8507,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B381" s="1">
         <v>3000400</v>
@@ -8518,7 +8527,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B382" s="1">
         <v>3000401</v>
@@ -8538,7 +8547,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A383">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B383" s="1">
         <v>3000402</v>
@@ -8558,7 +8567,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A384">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B384" s="1">
         <v>3000403</v>
@@ -8578,7 +8587,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B385" s="1">
         <v>3000404</v>
@@ -8598,7 +8607,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B386" s="1">
         <v>3000405</v>
@@ -8618,7 +8627,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A387">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B387" s="1">
         <v>3000406</v>
@@ -8638,7 +8647,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A388">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B388" s="1">
         <v>3000407</v>
@@ -8658,7 +8667,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A389">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B389" s="1">
         <v>3000408</v>
@@ -8678,7 +8687,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A390">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B390" s="1">
         <v>3000409</v>
@@ -8698,7 +8707,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B391" s="1">
         <v>3000410</v>
@@ -8718,7 +8727,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B392" s="1">
         <v>3000411</v>
@@ -8738,7 +8747,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B393" s="1">
         <v>3000412</v>
@@ -8758,7 +8767,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A394">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B394" s="1">
         <v>3000413</v>
@@ -8778,7 +8787,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A395">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B395" s="1">
         <v>3000414</v>
@@ -8798,7 +8807,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B396" s="1">
         <v>3000415</v>
@@ -8818,7 +8827,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B397" s="1">
         <v>3000416</v>
@@ -8838,7 +8847,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B398" s="1">
         <v>3000417</v>
@@ -8858,7 +8867,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B399" s="1">
         <v>3000418</v>
@@ -8878,7 +8887,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A400">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B400" s="1">
         <v>3000419</v>
@@ -8898,7 +8907,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A401">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B401" s="1">
         <v>3000420</v>
@@ -8918,7 +8927,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B402" s="1">
         <v>3000421</v>
@@ -8938,7 +8947,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B403" s="1">
         <v>3000422</v>
@@ -8958,7 +8967,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B404" s="1">
         <v>3000423</v>
@@ -8978,7 +8987,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B405" s="1">
         <v>3000424</v>
@@ -8998,7 +9007,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B406" s="1">
         <v>3000425</v>
@@ -9018,7 +9027,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B407" s="1">
         <v>3000426</v>
@@ -9038,7 +9047,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A408">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B408" s="1">
         <v>3000427</v>
@@ -9058,7 +9067,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A409">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B409" s="1">
         <v>3000428</v>
@@ -9078,7 +9087,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B410" s="1">
         <v>3000429</v>
@@ -9098,7 +9107,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A411">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B411" s="1">
         <v>3000430</v>
@@ -9117,8 +9126,8 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A412">
-        <v>10008</v>
+      <c r="A412" s="2">
+        <v>33333</v>
       </c>
       <c r="B412" s="1">
         <v>3000431</v>
@@ -9137,8 +9146,8 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A413">
-        <v>10008</v>
+      <c r="A413" s="2">
+        <v>33333</v>
       </c>
       <c r="B413" s="1">
         <v>3000432</v>
@@ -9157,8 +9166,8 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A414">
-        <v>10008</v>
+      <c r="A414" s="2">
+        <v>33333</v>
       </c>
       <c r="B414" s="1">
         <v>3000433</v>
@@ -9177,8 +9186,8 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A415">
-        <v>10008</v>
+      <c r="A415" s="2">
+        <v>33333</v>
       </c>
       <c r="B415" s="1">
         <v>3000434</v>
@@ -9197,8 +9206,8 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A416">
-        <v>10008</v>
+      <c r="A416" s="2">
+        <v>33333</v>
       </c>
       <c r="B416" s="1">
         <v>3000435</v>
